--- a/code/src/main/resources/templet/unitsTemplate.xlsx
+++ b/code/src/main/resources/templet/unitsTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SmartSystem\code\src\main\resources\templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshen.OVERSEAS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC89AEBE-4E60-4696-A6C2-59C27927DE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA8470-6373-42B1-AE5A-73CC69FE9747}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="importUnit" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫外灯节点？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>父组织名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -522,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -530,13 +530,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -850,6 +850,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{ED8B4B2E-D8E5-4D72-9990-E8B3969F925E}">
+      <formula1>"一级行政区,二级行政区,三级行政区,其它行政区,医院,幼儿园,一级子单位 - 医院,一级子单位 - 幼儿园,二级子单位 - 医院,二级子单位 - 幼儿园,三级子单位 - 医院,三级子单位 - 幼儿园,紫外线灯"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
